--- a/07_calc_country_stats/03_total_c_stats/02_combine_tile_stats/country_total_c_stats.xlsx
+++ b/07_calc_country_stats/03_total_c_stats/02_combine_tile_stats/country_total_c_stats.xlsx
@@ -1146,10 +1146,10 @@
         <v>126</v>
       </c>
       <c r="D2">
-        <v>6603961.568255147</v>
+        <v>12388070.18642641</v>
       </c>
       <c r="E2">
-        <v>235.1036346253837</v>
+        <v>440.8690796866876</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>127</v>
       </c>
       <c r="D3">
-        <v>759.4633209545464</v>
+        <v>1268.771072500734</v>
       </c>
       <c r="E3">
-        <v>233.5</v>
+        <v>390.0833333333333</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>128</v>
       </c>
       <c r="D4">
-        <v>463533.3887170175</v>
+        <v>2758881.736067958</v>
       </c>
       <c r="E4">
-        <v>62.93468191146292</v>
+        <v>373.9962357080035</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>129</v>
       </c>
       <c r="D5">
-        <v>3860.117803972455</v>
+        <v>19893.04325426359</v>
       </c>
       <c r="E5">
-        <v>65.07925072046109</v>
+        <v>335.3804034582133</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>130</v>
       </c>
       <c r="D6">
-        <v>57304842.64045477</v>
+        <v>87596025.98566499</v>
       </c>
       <c r="E6">
-        <v>382.7904715888018</v>
+        <v>584.7607496538872</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>131</v>
       </c>
       <c r="D7">
-        <v>949356.0206711335</v>
+        <v>2772068.800872341</v>
       </c>
       <c r="E7">
-        <v>129.0608974358974</v>
+        <v>377.531725761218</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>132</v>
       </c>
       <c r="D8">
-        <v>11799997.33668401</v>
+        <v>23873249.67107628</v>
       </c>
       <c r="E8">
-        <v>241.7398097725007</v>
+        <v>488.8845913493728</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>133</v>
       </c>
       <c r="D9">
-        <v>26032064.90326077</v>
+        <v>19274396.9309385</v>
       </c>
       <c r="E9">
-        <v>497.9997395855939</v>
+        <v>368.799190979245</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>134</v>
       </c>
       <c r="D10">
-        <v>5891911.445023344</v>
+        <v>6612767.872370403</v>
       </c>
       <c r="E10">
-        <v>512.6779934608765</v>
+        <v>575.4013160603839</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1299,10 +1299,10 @@
         <v>135</v>
       </c>
       <c r="D11">
-        <v>6892858.714332385</v>
+        <v>11583042.43030436</v>
       </c>
       <c r="E11">
-        <v>232.0973809023154</v>
+        <v>389.8647072108907</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1316,10 +1316,10 @@
         <v>136</v>
       </c>
       <c r="D12">
-        <v>10290.30372228246</v>
+        <v>44704.56967001042</v>
       </c>
       <c r="E12">
-        <v>75.26008968609865</v>
+        <v>326.6925048046124</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1333,10 +1333,10 @@
         <v>137</v>
       </c>
       <c r="D13">
-        <v>16220737.60605545</v>
+        <v>19884607.76633907</v>
       </c>
       <c r="E13">
-        <v>208.5764575599713</v>
+        <v>255.6833653447653</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1350,10 +1350,10 @@
         <v>138</v>
       </c>
       <c r="D14">
-        <v>10124219.15275364</v>
+        <v>5570286.023239363</v>
       </c>
       <c r="E14">
-        <v>489.4556838796279</v>
+        <v>269.2778661703341</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1367,10 +1367,10 @@
         <v>139</v>
       </c>
       <c r="D15">
-        <v>2127027.975714005</v>
+        <v>1770129.889455856</v>
       </c>
       <c r="E15">
-        <v>396.5756682840758</v>
+        <v>330.0341243934715</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1384,10 +1384,10 @@
         <v>140</v>
       </c>
       <c r="D16">
-        <v>91171106.09917215</v>
+        <v>93647281.40626742</v>
       </c>
       <c r="E16">
-        <v>462.4679942636281</v>
+        <v>475.0208551229789</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1401,10 +1401,10 @@
         <v>141</v>
       </c>
       <c r="D17">
-        <v>5260435.575906955</v>
+        <v>10686629.57532511</v>
       </c>
       <c r="E17">
-        <v>221.8852975751659</v>
+        <v>450.7643906035187</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1418,10 +1418,10 @@
         <v>142</v>
       </c>
       <c r="D18">
-        <v>578676.3209970813</v>
+        <v>1039841.872016942</v>
       </c>
       <c r="E18">
-        <v>288.1453027730617</v>
+        <v>517.7808432371251</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1435,10 +1435,10 @@
         <v>143</v>
       </c>
       <c r="D19">
-        <v>40349806.91085932</v>
+        <v>38786189.56955031</v>
       </c>
       <c r="E19">
-        <v>317.7879980177672</v>
+        <v>305.5396759923917</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1452,10 +1452,10 @@
         <v>144</v>
       </c>
       <c r="D20">
-        <v>303114.6920112486</v>
+        <v>389351.967591388</v>
       </c>
       <c r="E20">
-        <v>433.8579777113346</v>
+        <v>557.2926066865996</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1469,10 +1469,10 @@
         <v>145</v>
       </c>
       <c r="D21">
-        <v>21179641.61052212</v>
+        <v>29969036.76512294</v>
       </c>
       <c r="E21">
-        <v>402.7917575965555</v>
+        <v>569.920444613644</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1486,10 +1486,10 @@
         <v>146</v>
       </c>
       <c r="D22">
-        <v>4186229.605474708</v>
+        <v>6624826.992428808</v>
       </c>
       <c r="E22">
-        <v>278.5824551341793</v>
+        <v>440.7676954142472</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1503,10 +1503,10 @@
         <v>147</v>
       </c>
       <c r="D23">
-        <v>1181744946.366174</v>
+        <v>1669053197.099134</v>
       </c>
       <c r="E23">
-        <v>407.1337529745271</v>
+        <v>575.1456031880733</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1520,10 +1520,10 @@
         <v>148</v>
       </c>
       <c r="D24">
-        <v>161532422.8447542</v>
+        <v>90011544.0133204</v>
       </c>
       <c r="E24">
-        <v>402.3635932526257</v>
+        <v>222.6490975739517</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1537,10 +1537,10 @@
         <v>149</v>
       </c>
       <c r="D25">
-        <v>2747994.361625511</v>
+        <v>4113486.580947112</v>
       </c>
       <c r="E25">
-        <v>281.3202118695077</v>
+        <v>421.0998972136567</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1554,10 +1554,10 @@
         <v>150</v>
       </c>
       <c r="D26">
-        <v>598142.986352046</v>
+        <v>426113.1944822597</v>
       </c>
       <c r="E26">
-        <v>581.0312762737515</v>
+        <v>413.8952412981335</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1571,10 +1571,10 @@
         <v>151</v>
       </c>
       <c r="D27">
-        <v>11741242.24346362</v>
+        <v>20646715.279215</v>
       </c>
       <c r="E27">
-        <v>216.4802300201478</v>
+        <v>380.6690889439221</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1588,10 +1588,10 @@
         <v>152</v>
       </c>
       <c r="D28">
-        <v>3414890.39040059</v>
+        <v>3531065.537288021</v>
       </c>
       <c r="E28">
-        <v>415.892380627633</v>
+        <v>430.0033218571601</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1605,10 +1605,10 @@
         <v>153</v>
       </c>
       <c r="D29">
-        <v>50245.85851512059</v>
+        <v>74536.8354264386</v>
       </c>
       <c r="E29">
-        <v>310.9303255282696</v>
+        <v>461.1901770416904</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1622,10 +1622,10 @@
         <v>154</v>
       </c>
       <c r="D30">
-        <v>507730.6416019932</v>
+        <v>1093510.837166842</v>
       </c>
       <c r="E30">
-        <v>146.3241230702089</v>
+        <v>315.5466695761279</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1639,10 +1639,10 @@
         <v>155</v>
       </c>
       <c r="D31">
-        <v>236507340.5827657</v>
+        <v>168030076.0782801</v>
       </c>
       <c r="E31">
-        <v>443.4542669512706</v>
+        <v>315.2178873749588</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1656,10 +1656,10 @@
         <v>156</v>
       </c>
       <c r="D32">
-        <v>880247.201656098</v>
+        <v>935444.4227967593</v>
       </c>
       <c r="E32">
-        <v>452.7526856277507</v>
+        <v>481.1522407836827</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1673,10 +1673,10 @@
         <v>157</v>
       </c>
       <c r="D33">
-        <v>85223.27913156436</v>
+        <v>157855.1994326059</v>
       </c>
       <c r="E33">
-        <v>217.57666894509</v>
+        <v>402.9927090453406</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1690,10 +1690,10 @@
         <v>158</v>
       </c>
       <c r="D34">
-        <v>261934167.3554929</v>
+        <v>283508647.8382134</v>
       </c>
       <c r="E34">
-        <v>501.6102327906222</v>
+        <v>542.7976237229717</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1707,10 +1707,10 @@
         <v>159</v>
       </c>
       <c r="D35">
-        <v>147426.1052780316</v>
+        <v>298996.3416960744</v>
       </c>
       <c r="E35">
-        <v>218.2635478117712</v>
+        <v>442.6647002332281</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1724,10 +1724,10 @@
         <v>160</v>
       </c>
       <c r="D36">
-        <v>397301595.2988628</v>
+        <v>374802398.7850499</v>
       </c>
       <c r="E36">
-        <v>473.4595370302818</v>
+        <v>446.6241031930809</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1741,10 +1741,10 @@
         <v>161</v>
       </c>
       <c r="D37">
-        <v>24768306.89361386</v>
+        <v>28711430.24460145</v>
       </c>
       <c r="E37">
-        <v>334.0748299828394</v>
+        <v>387.0865458071157</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1758,10 +1758,10 @@
         <v>162</v>
       </c>
       <c r="D38">
-        <v>15894.63248693074</v>
+        <v>27335.211463615</v>
       </c>
       <c r="E38">
-        <v>332.047619047619</v>
+        <v>571.047619047619</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1775,10 +1775,10 @@
         <v>163</v>
       </c>
       <c r="D39">
-        <v>37922544.86268655</v>
+        <v>26870635.61263755</v>
       </c>
       <c r="E39">
-        <v>469.4278424667147</v>
+        <v>332.6199732875495</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1792,10 +1792,10 @@
         <v>164</v>
       </c>
       <c r="D40">
-        <v>36364.26767791274</v>
+        <v>58054.60034301662</v>
       </c>
       <c r="E40">
-        <v>291.7366885485047</v>
+        <v>465.7366885485047</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1809,10 +1809,10 @@
         <v>165</v>
       </c>
       <c r="D41">
-        <v>25768.60368930171</v>
+        <v>175424.6123768985</v>
       </c>
       <c r="E41">
-        <v>56.28831022855002</v>
+        <v>383.2068190333458</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1826,10 +1826,10 @@
         <v>166</v>
       </c>
       <c r="D42">
-        <v>580750.7341656113</v>
+        <v>2389593.09905009</v>
       </c>
       <c r="E42">
-        <v>82.67777777777778</v>
+        <v>339.6283295711061</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1843,10 +1843,10 @@
         <v>167</v>
       </c>
       <c r="D43">
-        <v>2977.99963043791</v>
+        <v>4588.046854512124</v>
       </c>
       <c r="E43">
-        <v>344.0326086956522</v>
+        <v>530.0326086956521</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1860,10 +1860,10 @@
         <v>168</v>
       </c>
       <c r="D44">
-        <v>65356.36328497516</v>
+        <v>54599.65749083056</v>
       </c>
       <c r="E44">
-        <v>418.318407960199</v>
+        <v>349.5262576008845</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1877,10 +1877,10 @@
         <v>169</v>
       </c>
       <c r="D45">
-        <v>28248368.2312728</v>
+        <v>40719066.3744937</v>
       </c>
       <c r="E45">
-        <v>257.1203673568668</v>
+        <v>370.6226995231178</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1894,10 +1894,10 @@
         <v>170</v>
       </c>
       <c r="D46">
-        <v>109514026.5644467</v>
+        <v>119424635.2230091</v>
       </c>
       <c r="E46">
-        <v>474.8238343818718</v>
+        <v>517.6934983921418</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1911,10 +1911,10 @@
         <v>171</v>
       </c>
       <c r="D47">
-        <v>14757.50945895592</v>
+        <v>12199.08037755164</v>
       </c>
       <c r="E47">
-        <v>464.3061224489796</v>
+        <v>383.8746355685131</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1928,10 +1928,10 @@
         <v>172</v>
       </c>
       <c r="D48">
-        <v>135836598.0634772</v>
+        <v>116684708.8886954</v>
       </c>
       <c r="E48">
-        <v>477.664611516387</v>
+        <v>410.3236869915864</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1945,10 +1945,10 @@
         <v>173</v>
       </c>
       <c r="D49">
-        <v>143719.0633122364</v>
+        <v>473410.9372204904</v>
       </c>
       <c r="E49">
-        <v>99.60162498413102</v>
+        <v>328.1152088358512</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1962,10 +1962,10 @@
         <v>174</v>
       </c>
       <c r="D50">
-        <v>8109.166270853433</v>
+        <v>18651.70148245575</v>
       </c>
       <c r="E50">
-        <v>184.3649789029536</v>
+        <v>424.0548523206751</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1979,10 +1979,10 @@
         <v>175</v>
       </c>
       <c r="D51">
-        <v>15353519.0249472</v>
+        <v>14224601.63823037</v>
       </c>
       <c r="E51">
-        <v>416.6151597787874</v>
+        <v>386.0493887144943</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1996,10 +1996,10 @@
         <v>176</v>
       </c>
       <c r="D52">
-        <v>158444397.180841</v>
+        <v>169061302.3461792</v>
       </c>
       <c r="E52">
-        <v>451.4959449124353</v>
+        <v>481.6470124752785</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2013,10 +2013,10 @@
         <v>177</v>
       </c>
       <c r="D53">
-        <v>8313.783929346941</v>
+        <v>15185.85449342808</v>
       </c>
       <c r="E53">
-        <v>185.2815734989648</v>
+        <v>338.4285714285714</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2030,10 +2030,10 @@
         <v>178</v>
       </c>
       <c r="D54">
-        <v>9973.213237052434</v>
+        <v>15582.67071043992</v>
       </c>
       <c r="E54">
-        <v>309.3571428571428</v>
+        <v>483.3571428571428</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2047,10 +2047,10 @@
         <v>179</v>
       </c>
       <c r="D55">
-        <v>155453.6609945826</v>
+        <v>231675.5841741396</v>
       </c>
       <c r="E55">
-        <v>230.4623613829093</v>
+        <v>343.4623613829093</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2064,10 +2064,10 @@
         <v>180</v>
       </c>
       <c r="D56">
-        <v>64969674.60041945</v>
+        <v>69959110.94407678</v>
       </c>
       <c r="E56">
-        <v>425.1021143261277</v>
+        <v>457.7556704898373</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2081,10 +2081,10 @@
         <v>181</v>
       </c>
       <c r="D57">
-        <v>249468.9060969275</v>
+        <v>389838.9692773655</v>
       </c>
       <c r="E57">
-        <v>287.4370037609695</v>
+        <v>449.1712285833681</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2098,10 +2098,10 @@
         <v>182</v>
       </c>
       <c r="D58">
-        <v>188826813.351123</v>
+        <v>361319983.204668</v>
       </c>
       <c r="E58">
-        <v>188.2925390957384</v>
+        <v>359.4998279261188</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2115,10 +2115,10 @@
         <v>183</v>
       </c>
       <c r="D59">
-        <v>1069110.512834777</v>
+        <v>1156388.815988745</v>
       </c>
       <c r="E59">
-        <v>373.5654999505163</v>
+        <v>404.0623164978722</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2132,10 +2132,10 @@
         <v>184</v>
       </c>
       <c r="D60">
-        <v>28264.68564470301</v>
+        <v>100290.3676242984</v>
       </c>
       <c r="E60">
-        <v>153.6313131313131</v>
+        <v>545.1237373737374</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2149,10 +2149,10 @@
         <v>185</v>
       </c>
       <c r="D61">
-        <v>203485261.8894511</v>
+        <v>90593377.28591056</v>
       </c>
       <c r="E61">
-        <v>453.4897263497917</v>
+        <v>201.9233292408668</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2166,10 +2166,10 @@
         <v>186</v>
       </c>
       <c r="D62">
-        <v>22310.05008463845</v>
+        <v>59787.998423788</v>
       </c>
       <c r="E62">
-        <v>111.0875478113047</v>
+        <v>296.3140671483213</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2183,10 +2183,10 @@
         <v>187</v>
       </c>
       <c r="D63">
-        <v>2860664.723911036</v>
+        <v>4476052.507215547</v>
       </c>
       <c r="E63">
-        <v>328.5912117898019</v>
+        <v>514.2169873634286</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2200,10 +2200,10 @@
         <v>188</v>
       </c>
       <c r="D64">
-        <v>47739863.43162861</v>
+        <v>92066039.48104958</v>
       </c>
       <c r="E64">
-        <v>273.9317252443522</v>
+        <v>528.2770427714468</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2217,10 +2217,10 @@
         <v>189</v>
       </c>
       <c r="D65">
-        <v>5286355.205103661</v>
+        <v>5092678.992551253</v>
       </c>
       <c r="E65">
-        <v>297.0366000711816</v>
+        <v>286.1546021003873</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2234,10 +2234,10 @@
         <v>190</v>
       </c>
       <c r="D66">
-        <v>50778383.95342065</v>
+        <v>77699346.97262995</v>
       </c>
       <c r="E66">
-        <v>170.435890957346</v>
+        <v>260.3918874691943</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2251,10 +2251,10 @@
         <v>191</v>
       </c>
       <c r="D67">
-        <v>10029.99252201861</v>
+        <v>10944.87224820121</v>
       </c>
       <c r="E67">
-        <v>482.3798449612403</v>
+        <v>526.3798449612403</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2268,10 +2268,10 @@
         <v>192</v>
       </c>
       <c r="D68">
-        <v>324110239.042415</v>
+        <v>408847398.5440353</v>
       </c>
       <c r="E68">
-        <v>284.574517671342</v>
+        <v>359.6522558004206</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2285,10 +2285,10 @@
         <v>193</v>
       </c>
       <c r="D69">
-        <v>2875.911321241028</v>
+        <v>3892.734097007427</v>
       </c>
       <c r="E69">
-        <v>265.5042735042735</v>
+        <v>359.3760683760684</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2302,10 +2302,10 @@
         <v>194</v>
       </c>
       <c r="D70">
-        <v>12197223.422974</v>
+        <v>11584654.64100556</v>
       </c>
       <c r="E70">
-        <v>431.7956008154781</v>
+        <v>410.1260060228121</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2319,10 +2319,10 @@
         <v>195</v>
       </c>
       <c r="D71">
-        <v>76765.60322914991</v>
+        <v>103387.1190266916</v>
       </c>
       <c r="E71">
-        <v>220.3694284216046</v>
+        <v>296.8141059255375</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2336,10 +2336,10 @@
         <v>196</v>
       </c>
       <c r="D72">
-        <v>949.2221161483756</v>
+        <v>1557.928064483481</v>
       </c>
       <c r="E72">
-        <v>271.4102564102564</v>
+        <v>445.4102564102564</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2353,10 +2353,10 @@
         <v>197</v>
       </c>
       <c r="D73">
-        <v>105638038.8998128</v>
+        <v>140055276.9848007</v>
       </c>
       <c r="E73">
-        <v>379.1599597779989</v>
+        <v>502.6379016053191</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2370,10 +2370,10 @@
         <v>198</v>
       </c>
       <c r="D74">
-        <v>31899.17967706209</v>
+        <v>51512.517629588</v>
       </c>
       <c r="E74">
-        <v>334.4732229795521</v>
+        <v>540.141187925998</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2387,10 +2387,10 @@
         <v>199</v>
       </c>
       <c r="D75">
-        <v>2003214.228041054</v>
+        <v>2446648.304522873</v>
       </c>
       <c r="E75">
-        <v>451.4500475352469</v>
+        <v>551.3737888625928</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2404,10 +2404,10 @@
         <v>200</v>
       </c>
       <c r="D76">
-        <v>79661.82109203271</v>
+        <v>244627.3848209206</v>
       </c>
       <c r="E76">
-        <v>111.8290932811481</v>
+        <v>343.3679060665362</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2421,10 +2421,10 @@
         <v>201</v>
       </c>
       <c r="D77">
-        <v>804.6432613271342</v>
+        <v>581.8485323193751</v>
       </c>
       <c r="E77">
-        <v>627.6428571428571</v>
+        <v>453.8571428571428</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2438,10 +2438,10 @@
         <v>202</v>
       </c>
       <c r="D78">
-        <v>6889327.171004713</v>
+        <v>8431921.876307072</v>
       </c>
       <c r="E78">
-        <v>361.450439318408</v>
+        <v>442.5936811722704</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2455,10 +2455,10 @@
         <v>203</v>
       </c>
       <c r="D79">
-        <v>35757383.47792784</v>
+        <v>62436287.65378428</v>
       </c>
       <c r="E79">
-        <v>235.9981861637363</v>
+        <v>412.0872864859177</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2472,10 +2472,10 @@
         <v>204</v>
       </c>
       <c r="D80">
-        <v>97142588.20295589</v>
+        <v>59918798.08625815</v>
       </c>
       <c r="E80">
-        <v>443.5724223982421</v>
+        <v>273.6167568622777</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2489,10 +2489,10 @@
         <v>205</v>
       </c>
       <c r="D81">
-        <v>1672154.758750075</v>
+        <v>1760764.092566694</v>
       </c>
       <c r="E81">
-        <v>489.1733756873632</v>
+        <v>515.0885430569643</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2506,10 +2506,10 @@
         <v>206</v>
       </c>
       <c r="D82">
-        <v>15514106.62069555</v>
+        <v>16034090.01546084</v>
       </c>
       <c r="E82">
-        <v>254.6111708770008</v>
+        <v>263.1441659472</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2523,10 +2523,10 @@
         <v>207</v>
       </c>
       <c r="D83">
-        <v>92246159.44657293</v>
+        <v>84188487.04930492</v>
       </c>
       <c r="E83">
-        <v>345.257708432655</v>
+        <v>315.1014983825881</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2540,10 +2540,10 @@
         <v>208</v>
       </c>
       <c r="D84">
-        <v>8235801.7441722</v>
+        <v>11705074.4121924</v>
       </c>
       <c r="E84">
-        <v>322.1882691629056</v>
+        <v>457.9029624264037</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2557,10 +2557,10 @@
         <v>209</v>
       </c>
       <c r="D85">
-        <v>89308.3794729708</v>
+        <v>77274.19531023817</v>
       </c>
       <c r="E85">
-        <v>465.0715667311412</v>
+        <v>402.3999032882012</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2574,10 +2574,10 @@
         <v>210</v>
       </c>
       <c r="D86">
-        <v>7500547.057186903</v>
+        <v>8104764.549024634</v>
       </c>
       <c r="E86">
-        <v>301.2664441920434</v>
+        <v>325.469993673532</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2591,10 +2591,10 @@
         <v>211</v>
       </c>
       <c r="D87">
-        <v>24440960.44335131</v>
+        <v>20077601.83803038</v>
       </c>
       <c r="E87">
-        <v>384.7199811195454</v>
+        <v>316.0154512994458</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2608,10 +2608,10 @@
         <v>212</v>
       </c>
       <c r="D88">
-        <v>14823.8164936484</v>
+        <v>23832.68997263108</v>
       </c>
       <c r="E88">
-        <v>286.3107142857143</v>
+        <v>460.3107142857143</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2625,10 +2625,10 @@
         <v>213</v>
       </c>
       <c r="D89">
-        <v>1053822.77314876</v>
+        <v>3787829.527545282</v>
       </c>
       <c r="E89">
-        <v>102.7251779226596</v>
+        <v>369.4045521657625</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2642,10 +2642,10 @@
         <v>214</v>
       </c>
       <c r="D90">
-        <v>55959.86323277847</v>
+        <v>241097.6427741701</v>
       </c>
       <c r="E90">
-        <v>79.87021822849808</v>
+        <v>344.2910141206675</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2659,10 +2659,10 @@
         <v>215</v>
       </c>
       <c r="D91">
-        <v>102005634.6025274</v>
+        <v>51475528.73613232</v>
       </c>
       <c r="E91">
-        <v>554.0920809709578</v>
+        <v>279.7305046669416</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2676,10 +2676,10 @@
         <v>216</v>
       </c>
       <c r="D92">
-        <v>518425.2212696995</v>
+        <v>729744.0163340026</v>
       </c>
       <c r="E92">
-        <v>329.966449965173</v>
+        <v>464.4919317390295</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2693,10 +2693,10 @@
         <v>217</v>
       </c>
       <c r="D93">
-        <v>19523724.11095779</v>
+        <v>23273865.13285113</v>
       </c>
       <c r="E93">
-        <v>326.2099027096814</v>
+        <v>388.7068518205432</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2710,10 +2710,10 @@
         <v>218</v>
       </c>
       <c r="D94">
-        <v>71883675.83496375</v>
+        <v>45726869.98969331</v>
       </c>
       <c r="E94">
-        <v>476.637832948662</v>
+        <v>303.1877724408957</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2727,10 +2727,10 @@
         <v>219</v>
       </c>
       <c r="D95">
-        <v>11935739.30130931</v>
+        <v>12017205.6899218</v>
       </c>
       <c r="E95">
-        <v>320.937430362117</v>
+        <v>323.1365200955034</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2744,10 +2744,10 @@
         <v>220</v>
       </c>
       <c r="D96">
-        <v>8722449.817007095</v>
+        <v>5424219.474794986</v>
       </c>
       <c r="E96">
-        <v>479.3560742226055</v>
+        <v>298.0849861300142</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2761,10 +2761,10 @@
         <v>221</v>
       </c>
       <c r="D97">
-        <v>2958120.343036795</v>
+        <v>6675391.121004685</v>
       </c>
       <c r="E97">
-        <v>163.3035844915874</v>
+        <v>368.6612035466181</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2778,10 +2778,10 @@
         <v>222</v>
       </c>
       <c r="D98">
-        <v>29721288.94608943</v>
+        <v>20408995.27361345</v>
       </c>
       <c r="E98">
-        <v>478.9445091272923</v>
+        <v>328.8565878604232</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2795,10 +2795,10 @@
         <v>223</v>
       </c>
       <c r="D99">
-        <v>44695.82331397753</v>
+        <v>70442.56146569632</v>
       </c>
       <c r="E99">
-        <v>302.0615384615385</v>
+        <v>476.0615384615385</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2812,10 +2812,10 @@
         <v>224</v>
       </c>
       <c r="D100">
-        <v>11539.07605646196</v>
+        <v>12715.93762702741</v>
       </c>
       <c r="E100">
-        <v>338.0398936170213</v>
+        <v>372.5186170212766</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2829,10 +2829,10 @@
         <v>225</v>
       </c>
       <c r="D101">
-        <v>412.33258824162</v>
+        <v>562.7692200444731</v>
       </c>
       <c r="E101">
-        <v>325.7857142857143</v>
+        <v>444.6428571428572</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2846,10 +2846,10 @@
         <v>226</v>
       </c>
       <c r="D102">
-        <v>62639008.03619858</v>
+        <v>85059732.18977225</v>
       </c>
       <c r="E102">
-        <v>226.7377064461886</v>
+        <v>308.2663095092099</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2863,10 +2863,10 @@
         <v>227</v>
       </c>
       <c r="D103">
-        <v>48583.71424510139</v>
+        <v>43812.8665069489</v>
       </c>
       <c r="E103">
-        <v>509.1891089108911</v>
+        <v>459.1891089108911</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2880,10 +2880,10 @@
         <v>228</v>
       </c>
       <c r="D104">
-        <v>291096515.9752479</v>
+        <v>324191255.8204107</v>
       </c>
       <c r="E104">
-        <v>292.8585799229733</v>
+        <v>326.3817065730588</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2897,10 +2897,10 @@
         <v>229</v>
       </c>
       <c r="D105">
-        <v>10078.44549053005</v>
+        <v>15735.92339951507</v>
       </c>
       <c r="E105">
-        <v>309.9709302325581</v>
+        <v>483.9709302325581</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2914,10 +2914,10 @@
         <v>230</v>
       </c>
       <c r="D106">
-        <v>7491123.116757866</v>
+        <v>12015938.36549626</v>
       </c>
       <c r="E106">
-        <v>223.7746011219728</v>
+        <v>358.9275938002655</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2931,10 +2931,10 @@
         <v>231</v>
       </c>
       <c r="D107">
-        <v>1106294.074964811</v>
+        <v>2037301.964255879</v>
       </c>
       <c r="E107">
-        <v>203.9099376168592</v>
+        <v>375.5137085641393</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="D108">
-        <v>134701107.2797651</v>
+        <v>135799085.5475682</v>
       </c>
       <c r="E108">
-        <v>477.7756762520083</v>
+        <v>481.2471927412594</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2965,10 +2965,10 @@
         <v>233</v>
       </c>
       <c r="D109">
-        <v>3179953.757760411</v>
+        <v>3741710.781229682</v>
       </c>
       <c r="E109">
-        <v>558.7335308527543</v>
+        <v>657.4326337394068</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2982,10 +2982,10 @@
         <v>234</v>
       </c>
       <c r="D110">
-        <v>175393217.1893913</v>
+        <v>240763298.3928025</v>
       </c>
       <c r="E110">
-        <v>389.1030161983846</v>
+        <v>534.1274765044824</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2999,10 +2999,10 @@
         <v>235</v>
       </c>
       <c r="D111">
-        <v>2176.318890857558</v>
+        <v>2628.819314516404</v>
       </c>
       <c r="E111">
-        <v>370.2615384615385</v>
+        <v>447.2461538461538</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3016,10 +3016,10 @@
         <v>236</v>
       </c>
       <c r="D112">
-        <v>83277.69192732949</v>
+        <v>157064.641199698</v>
       </c>
       <c r="E112">
-        <v>216.7900782013685</v>
+        <v>409.0234604105572</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3033,10 +3033,10 @@
         <v>237</v>
       </c>
       <c r="D113">
-        <v>5606677.642693251</v>
+        <v>8867286.610588972</v>
       </c>
       <c r="E113">
-        <v>368.6343060308018</v>
+        <v>583.0080054376558</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3050,10 +3050,10 @@
         <v>238</v>
       </c>
       <c r="D114">
-        <v>7858.806080774453</v>
+        <v>12655.00893925716</v>
       </c>
       <c r="E114">
-        <v>285.1073825503356</v>
+        <v>459.1073825503356</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3067,10 +3067,10 @@
         <v>239</v>
       </c>
       <c r="D115">
-        <v>71549.25842502151</v>
+        <v>111813.2060919877</v>
       </c>
       <c r="E115">
-        <v>309.2005582137161</v>
+        <v>483.2005582137161</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3084,10 +3084,10 @@
         <v>240</v>
       </c>
       <c r="D116">
-        <v>14964.61340519143</v>
+        <v>19456.16536123984</v>
       </c>
       <c r="E116">
-        <v>316.3273453093813</v>
+        <v>411.2714570858283</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3101,10 +3101,10 @@
         <v>241</v>
       </c>
       <c r="D117">
-        <v>115147225.8278518</v>
+        <v>84403982.27418976</v>
       </c>
       <c r="E117">
-        <v>459.6114143643887</v>
+        <v>336.8149478523693</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3118,10 +3118,10 @@
         <v>242</v>
       </c>
       <c r="D118">
-        <v>214578.4259204032</v>
+        <v>416048.8098825993</v>
       </c>
       <c r="E118">
-        <v>204.746171070309</v>
+        <v>396.9109717868338</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3135,10 +3135,10 @@
         <v>243</v>
       </c>
       <c r="D119">
-        <v>294193.8100357815</v>
+        <v>475598.399119324</v>
       </c>
       <c r="E119">
-        <v>282.1882161792372</v>
+        <v>456.1882161792372</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3152,10 +3152,10 @@
         <v>244</v>
       </c>
       <c r="D120">
-        <v>4168835.200107818</v>
+        <v>3225513.533976575</v>
       </c>
       <c r="E120">
-        <v>509.0710031491032</v>
+        <v>393.8696316918443</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3169,10 +3169,10 @@
         <v>245</v>
       </c>
       <c r="D121">
-        <v>23122.12667191636</v>
+        <v>44361.55174011002</v>
       </c>
       <c r="E121">
-        <v>236.4285714285714</v>
+        <v>453.7078341013825</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3186,10 +3186,10 @@
         <v>246</v>
       </c>
       <c r="D122">
-        <v>79731.8742541043</v>
+        <v>110791.2575325587</v>
       </c>
       <c r="E122">
-        <v>306.4714683368128</v>
+        <v>425.8107167710508</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3203,10 +3203,10 @@
         <v>247</v>
       </c>
       <c r="D123">
-        <v>570678.0622573071</v>
+        <v>862862.0001439437</v>
       </c>
       <c r="E123">
-        <v>216.097844476471</v>
+        <v>326.2682812206278</v>
       </c>
     </row>
   </sheetData>

--- a/07_calc_country_stats/03_total_c_stats/02_combine_tile_stats/country_total_c_stats.xlsx
+++ b/07_calc_country_stats/03_total_c_stats/02_combine_tile_stats/country_total_c_stats.xlsx
@@ -1146,10 +1146,10 @@
         <v>126</v>
       </c>
       <c r="D2">
-        <v>12388070.18642641</v>
+        <v>12390394.66288805</v>
       </c>
       <c r="E2">
-        <v>440.8690796866876</v>
+        <v>440.9518961439761</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>127</v>
       </c>
       <c r="D3">
-        <v>1268.771072500734</v>
+        <v>1268.626646492208</v>
       </c>
       <c r="E3">
-        <v>390.0833333333333</v>
+        <v>390.0389268663195</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>128</v>
       </c>
       <c r="D4">
-        <v>2758881.736067958</v>
+        <v>2758784.283150818</v>
       </c>
       <c r="E4">
-        <v>373.9962357080035</v>
+        <v>373.9830272023904</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>129</v>
       </c>
       <c r="D5">
-        <v>19893.04325426359</v>
+        <v>19893.17298793809</v>
       </c>
       <c r="E5">
-        <v>335.3804034582133</v>
+        <v>335.3825752192341</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>130</v>
       </c>
       <c r="D6">
-        <v>87596025.98566499</v>
+        <v>87599598.84107204</v>
       </c>
       <c r="E6">
-        <v>584.7607496538872</v>
+        <v>584.7844134007158</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>131</v>
       </c>
       <c r="D7">
-        <v>2772068.800872341</v>
+        <v>2772506.121227667</v>
       </c>
       <c r="E7">
-        <v>377.531725761218</v>
+        <v>377.591310550005</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>132</v>
       </c>
       <c r="D8">
-        <v>23873249.67107628</v>
+        <v>23867992.5663089</v>
       </c>
       <c r="E8">
-        <v>488.8845913493728</v>
+        <v>488.7768809443369</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>133</v>
       </c>
       <c r="D9">
-        <v>19274396.9309385</v>
+        <v>19275125.92849181</v>
       </c>
       <c r="E9">
-        <v>368.799190979245</v>
+        <v>368.8131386256413</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>134</v>
       </c>
       <c r="D10">
-        <v>6612767.872370403</v>
+        <v>6613519.305541925</v>
       </c>
       <c r="E10">
-        <v>575.4013160603839</v>
+        <v>575.4667350913747</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1299,10 +1299,10 @@
         <v>135</v>
       </c>
       <c r="D11">
-        <v>11583042.43030436</v>
+        <v>11577146.7399784</v>
       </c>
       <c r="E11">
-        <v>389.8647072108907</v>
+        <v>389.6665946278514</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1316,10 +1316,10 @@
         <v>136</v>
       </c>
       <c r="D12">
-        <v>44704.56967001042</v>
+        <v>44708.27675587395</v>
       </c>
       <c r="E12">
-        <v>326.6925048046124</v>
+        <v>326.7194781990711</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1333,10 +1333,10 @@
         <v>137</v>
       </c>
       <c r="D13">
-        <v>19884607.76633907</v>
+        <v>19883590.02750538</v>
       </c>
       <c r="E13">
-        <v>255.6833653447653</v>
+        <v>255.6703231813087</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1350,10 +1350,10 @@
         <v>138</v>
       </c>
       <c r="D14">
-        <v>5570286.023239363</v>
+        <v>5571697.363196802</v>
       </c>
       <c r="E14">
-        <v>269.2778661703341</v>
+        <v>269.3459668605756</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1367,10 +1367,10 @@
         <v>139</v>
       </c>
       <c r="D15">
-        <v>1770129.889455856</v>
+        <v>1770398.171839612</v>
       </c>
       <c r="E15">
-        <v>330.0341243934715</v>
+        <v>330.084158717468</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1384,10 +1384,10 @@
         <v>140</v>
       </c>
       <c r="D16">
-        <v>93647281.40626742</v>
+        <v>93669862.84371033</v>
       </c>
       <c r="E16">
-        <v>475.0208551229789</v>
+        <v>475.1353545957035</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1401,10 +1401,10 @@
         <v>141</v>
       </c>
       <c r="D17">
-        <v>10686629.57532511</v>
+        <v>10687135.79427489</v>
       </c>
       <c r="E17">
-        <v>450.7643906035187</v>
+        <v>450.78577377513</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1418,10 +1418,10 @@
         <v>142</v>
       </c>
       <c r="D18">
-        <v>1039841.872016942</v>
+        <v>1040120.065886212</v>
       </c>
       <c r="E18">
-        <v>517.7808432371251</v>
+        <v>517.9193331004764</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1435,10 +1435,10 @@
         <v>143</v>
       </c>
       <c r="D19">
-        <v>38786189.56955031</v>
+        <v>38774492.56950162</v>
       </c>
       <c r="E19">
-        <v>305.5396759923917</v>
+        <v>305.4475591936977</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1452,10 +1452,10 @@
         <v>144</v>
       </c>
       <c r="D20">
-        <v>389351.967591388</v>
+        <v>389398.294157113</v>
       </c>
       <c r="E20">
-        <v>557.2926066865996</v>
+        <v>557.3589035743408</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1469,10 +1469,10 @@
         <v>145</v>
       </c>
       <c r="D21">
-        <v>29969036.76512294</v>
+        <v>29968507.59680502</v>
       </c>
       <c r="E21">
-        <v>569.920444613644</v>
+        <v>569.9103157054461</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1486,10 +1486,10 @@
         <v>146</v>
       </c>
       <c r="D22">
-        <v>6624826.992428808</v>
+        <v>6625593.260812703</v>
       </c>
       <c r="E22">
-        <v>440.7676954142472</v>
+        <v>440.8186434735465</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1503,10 +1503,10 @@
         <v>147</v>
       </c>
       <c r="D23">
-        <v>1669053197.099134</v>
+        <v>1668976363.110456</v>
       </c>
       <c r="E23">
-        <v>575.1456031880733</v>
+        <v>575.1191242877294</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1520,10 +1520,10 @@
         <v>148</v>
       </c>
       <c r="D24">
-        <v>90011544.0133204</v>
+        <v>90021375.85784994</v>
       </c>
       <c r="E24">
-        <v>222.6490975739517</v>
+        <v>222.6745341424459</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1537,10 +1537,10 @@
         <v>149</v>
       </c>
       <c r="D25">
-        <v>4113486.580947112</v>
+        <v>4113670.368364469</v>
       </c>
       <c r="E25">
-        <v>421.0998972136567</v>
+        <v>421.1187402190923</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1554,10 +1554,10 @@
         <v>150</v>
       </c>
       <c r="D26">
-        <v>426113.1944822597</v>
+        <v>426042.4986814807</v>
       </c>
       <c r="E26">
-        <v>413.8952412981335</v>
+        <v>413.8267686175803</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1571,10 +1571,10 @@
         <v>151</v>
       </c>
       <c r="D27">
-        <v>20646715.279215</v>
+        <v>20650239.15436623</v>
       </c>
       <c r="E27">
-        <v>380.6690889439221</v>
+        <v>380.7340663126819</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1588,10 +1588,10 @@
         <v>152</v>
       </c>
       <c r="D28">
-        <v>3531065.537288021</v>
+        <v>3531627.046710108</v>
       </c>
       <c r="E28">
-        <v>430.0033218571601</v>
+        <v>430.0717069478512</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1605,10 +1605,10 @@
         <v>153</v>
       </c>
       <c r="D29">
-        <v>74536.8354264386</v>
+        <v>74538.89460371778</v>
       </c>
       <c r="E29">
-        <v>461.1901770416904</v>
+        <v>461.2028929897202</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1622,10 +1622,10 @@
         <v>154</v>
       </c>
       <c r="D30">
-        <v>1093510.837166842</v>
+        <v>1093713.965152833</v>
       </c>
       <c r="E30">
-        <v>315.5466695761279</v>
+        <v>315.6053219273362</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1639,10 +1639,10 @@
         <v>155</v>
       </c>
       <c r="D31">
-        <v>168030076.0782801</v>
+        <v>168016518.2398848</v>
       </c>
       <c r="E31">
-        <v>315.2178873749588</v>
+        <v>315.1929006230121</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1656,10 +1656,10 @@
         <v>156</v>
       </c>
       <c r="D32">
-        <v>935444.4227967593</v>
+        <v>935517.3593692683</v>
       </c>
       <c r="E32">
-        <v>481.1522407836827</v>
+        <v>481.189768586437</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1673,10 +1673,10 @@
         <v>157</v>
       </c>
       <c r="D33">
-        <v>157855.1994326059</v>
+        <v>157881.6063342656</v>
       </c>
       <c r="E33">
-        <v>402.9927090453406</v>
+        <v>403.0601238981687</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1690,10 +1690,10 @@
         <v>158</v>
       </c>
       <c r="D34">
-        <v>283508647.8382134</v>
+        <v>283475553.7924027</v>
       </c>
       <c r="E34">
-        <v>542.7976237229717</v>
+        <v>542.7342736446184</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1707,10 +1707,10 @@
         <v>159</v>
       </c>
       <c r="D35">
-        <v>298996.3416960744</v>
+        <v>299052.4828884348</v>
       </c>
       <c r="E35">
-        <v>442.6647002332281</v>
+        <v>442.7478392097681</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1724,10 +1724,10 @@
         <v>160</v>
       </c>
       <c r="D36">
-        <v>374802398.7850499</v>
+        <v>374863163.9333791</v>
       </c>
       <c r="E36">
-        <v>446.6241031930809</v>
+        <v>446.6965510828551</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1741,10 +1741,10 @@
         <v>161</v>
       </c>
       <c r="D37">
-        <v>28711430.24460145</v>
+        <v>28712053.92844685</v>
       </c>
       <c r="E37">
-        <v>387.0865458071157</v>
+        <v>387.0948194615282</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1758,10 +1758,10 @@
         <v>162</v>
       </c>
       <c r="D38">
-        <v>27335.211463615</v>
+        <v>27340.12781301307</v>
       </c>
       <c r="E38">
-        <v>571.047619047619</v>
+        <v>571.1502976190476</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1775,10 +1775,10 @@
         <v>163</v>
       </c>
       <c r="D39">
-        <v>26870635.61263755</v>
+        <v>26870105.61007523</v>
       </c>
       <c r="E39">
-        <v>332.6199732875495</v>
+        <v>332.6133911143092</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1792,10 +1792,10 @@
         <v>164</v>
       </c>
       <c r="D40">
-        <v>58054.60034301662</v>
+        <v>58041.95458375636</v>
       </c>
       <c r="E40">
-        <v>465.7366885485047</v>
+        <v>465.6352378795131</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1809,10 +1809,10 @@
         <v>165</v>
       </c>
       <c r="D41">
-        <v>175424.6123768985</v>
+        <v>175414.2574202419</v>
       </c>
       <c r="E41">
-        <v>383.2068190333458</v>
+        <v>383.1842274728363</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1826,10 +1826,10 @@
         <v>166</v>
       </c>
       <c r="D42">
-        <v>2389593.09905009</v>
+        <v>2389734.907156862</v>
       </c>
       <c r="E42">
-        <v>339.6283295711061</v>
+        <v>339.6478020577375</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1843,10 +1843,10 @@
         <v>167</v>
       </c>
       <c r="D43">
-        <v>4588.046854512124</v>
+        <v>4587.083025099226</v>
       </c>
       <c r="E43">
-        <v>530.0326086956521</v>
+        <v>529.921238111413</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1860,10 +1860,10 @@
         <v>168</v>
       </c>
       <c r="D44">
-        <v>54599.65749083056</v>
+        <v>54582.66150605227</v>
       </c>
       <c r="E44">
-        <v>349.5262576008845</v>
+        <v>349.417398683665</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1877,10 +1877,10 @@
         <v>169</v>
       </c>
       <c r="D45">
-        <v>40719066.3744937</v>
+        <v>40722876.14218954</v>
       </c>
       <c r="E45">
-        <v>370.6226995231178</v>
+        <v>370.6573754008277</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1894,10 +1894,10 @@
         <v>170</v>
       </c>
       <c r="D46">
-        <v>119424635.2230091</v>
+        <v>119429947.5458408</v>
       </c>
       <c r="E46">
-        <v>517.6934983921418</v>
+        <v>517.7165638511594</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1911,10 +1911,10 @@
         <v>171</v>
       </c>
       <c r="D47">
-        <v>12199.08037755164</v>
+        <v>12198.55481230437</v>
       </c>
       <c r="E47">
-        <v>383.8746355685131</v>
+        <v>383.8581222667639</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1928,10 +1928,10 @@
         <v>172</v>
       </c>
       <c r="D48">
-        <v>116684708.8886954</v>
+        <v>116674284.0193381</v>
       </c>
       <c r="E48">
-        <v>410.3236869915864</v>
+        <v>410.2870117917989</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1945,10 +1945,10 @@
         <v>173</v>
       </c>
       <c r="D49">
-        <v>473410.9372204904</v>
+        <v>473451.7326661109</v>
       </c>
       <c r="E49">
-        <v>328.1152088358512</v>
+        <v>328.143537888691</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1962,10 +1962,10 @@
         <v>174</v>
       </c>
       <c r="D50">
-        <v>18651.70148245575</v>
+        <v>18653.06792671596</v>
       </c>
       <c r="E50">
-        <v>424.0548523206751</v>
+        <v>424.0859210179325</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1979,10 +1979,10 @@
         <v>175</v>
       </c>
       <c r="D51">
-        <v>14224601.63823037</v>
+        <v>14223015.48806399</v>
       </c>
       <c r="E51">
-        <v>386.0493887144943</v>
+        <v>386.006361297112</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1996,10 +1996,10 @@
         <v>176</v>
       </c>
       <c r="D52">
-        <v>169061302.3461792</v>
+        <v>169069199.0080719</v>
       </c>
       <c r="E52">
-        <v>481.6470124752785</v>
+        <v>481.6695340906206</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2013,10 +2013,10 @@
         <v>177</v>
       </c>
       <c r="D53">
-        <v>15185.85449342808</v>
+        <v>15190.31404731837</v>
       </c>
       <c r="E53">
-        <v>338.4285714285714</v>
+        <v>338.5279422230849</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2030,10 +2030,10 @@
         <v>178</v>
       </c>
       <c r="D54">
-        <v>15582.67071043992</v>
+        <v>15580.86485710313</v>
       </c>
       <c r="E54">
-        <v>483.3571428571428</v>
+        <v>483.3011160714286</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2047,10 +2047,10 @@
         <v>179</v>
       </c>
       <c r="D55">
-        <v>231675.5841741396</v>
+        <v>231662.9713830547</v>
       </c>
       <c r="E55">
-        <v>343.4623613829093</v>
+        <v>343.4436725375082</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2064,10 +2064,10 @@
         <v>180</v>
       </c>
       <c r="D56">
-        <v>69959110.94407678</v>
+        <v>69954535.41631524</v>
       </c>
       <c r="E56">
-        <v>457.7556704898373</v>
+        <v>457.7257176228437</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2081,10 +2081,10 @@
         <v>181</v>
       </c>
       <c r="D57">
-        <v>389838.9692773655</v>
+        <v>389889.742642682</v>
       </c>
       <c r="E57">
-        <v>449.1712285833681</v>
+        <v>449.2297847889678</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2098,10 +2098,10 @@
         <v>182</v>
       </c>
       <c r="D58">
-        <v>361319983.204668</v>
+        <v>361207570.5191835</v>
       </c>
       <c r="E58">
-        <v>359.4998279261188</v>
+        <v>359.387845714789</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2115,10 +2115,10 @@
         <v>183</v>
       </c>
       <c r="D59">
-        <v>1156388.815988745</v>
+        <v>1155935.153687773</v>
       </c>
       <c r="E59">
-        <v>404.0623164978722</v>
+        <v>403.9038201431729</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2132,10 +2132,10 @@
         <v>184</v>
       </c>
       <c r="D60">
-        <v>100290.3676242984</v>
+        <v>100310.8731440218</v>
       </c>
       <c r="E60">
-        <v>545.1237373737374</v>
+        <v>545.2352272727272</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2149,10 +2149,10 @@
         <v>185</v>
       </c>
       <c r="D61">
-        <v>90593377.28591056</v>
+        <v>90625749.6197352</v>
       </c>
       <c r="E61">
-        <v>201.9233292408668</v>
+        <v>201.9954720273445</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2166,10 +2166,10 @@
         <v>186</v>
       </c>
       <c r="D62">
-        <v>59787.998423788</v>
+        <v>59795.65193883802</v>
       </c>
       <c r="E62">
-        <v>296.3140671483213</v>
+        <v>296.3523510545049</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2183,10 +2183,10 @@
         <v>187</v>
       </c>
       <c r="D63">
-        <v>4476052.507215547</v>
+        <v>4475837.301220154</v>
       </c>
       <c r="E63">
-        <v>514.2169873634286</v>
+        <v>514.192231946595</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2200,10 +2200,10 @@
         <v>188</v>
       </c>
       <c r="D64">
-        <v>92066039.48104958</v>
+        <v>92074746.3157794</v>
       </c>
       <c r="E64">
-        <v>528.2770427714468</v>
+        <v>528.3269929841379</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2217,10 +2217,10 @@
         <v>189</v>
       </c>
       <c r="D65">
-        <v>5092678.992551253</v>
+        <v>5091276.682586251</v>
       </c>
       <c r="E65">
-        <v>286.1546021003873</v>
+        <v>286.075791264057</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2234,10 +2234,10 @@
         <v>190</v>
       </c>
       <c r="D66">
-        <v>77699346.97262995</v>
+        <v>77729437.28185432</v>
       </c>
       <c r="E66">
-        <v>260.3918874691943</v>
+        <v>260.4927162464455</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2251,10 +2251,10 @@
         <v>191</v>
       </c>
       <c r="D67">
-        <v>10944.87224820121</v>
+        <v>10946.57623210959</v>
       </c>
       <c r="E67">
-        <v>526.3798449612403</v>
+        <v>526.4618459302326</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2268,10 +2268,10 @@
         <v>192</v>
       </c>
       <c r="D68">
-        <v>408847398.5440353</v>
+        <v>408808016.059426</v>
       </c>
       <c r="E68">
-        <v>359.6522558004206</v>
+        <v>359.6184163110727</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2285,10 +2285,10 @@
         <v>193</v>
       </c>
       <c r="D69">
-        <v>3892.734097007427</v>
+        <v>3893.317661758655</v>
       </c>
       <c r="E69">
-        <v>359.3760683760684</v>
+        <v>359.429921207265</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2302,10 +2302,10 @@
         <v>194</v>
       </c>
       <c r="D70">
-        <v>11584654.64100556</v>
+        <v>11583493.00149527</v>
       </c>
       <c r="E70">
-        <v>410.1260060228121</v>
+        <v>410.0848647490606</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2319,10 +2319,10 @@
         <v>195</v>
       </c>
       <c r="D71">
-        <v>103387.1190266916</v>
+        <v>103315.3763670533</v>
       </c>
       <c r="E71">
-        <v>296.8141059255375</v>
+        <v>296.6081695316597</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2336,10 +2336,10 @@
         <v>196</v>
       </c>
       <c r="D72">
-        <v>1557.928064483481</v>
+        <v>1557.965555167946</v>
       </c>
       <c r="E72">
-        <v>445.4102564102564</v>
+        <v>445.4205478766025</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2353,10 +2353,10 @@
         <v>197</v>
       </c>
       <c r="D73">
-        <v>140055276.9848007</v>
+        <v>140051491.3198669</v>
       </c>
       <c r="E73">
-        <v>502.6379016053191</v>
+        <v>502.6243348299298</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2370,10 +2370,10 @@
         <v>198</v>
       </c>
       <c r="D74">
-        <v>51512.517629588</v>
+        <v>51512.96446944027</v>
       </c>
       <c r="E74">
-        <v>540.141187925998</v>
+        <v>540.1458206548199</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2387,10 +2387,10 @@
         <v>199</v>
       </c>
       <c r="D75">
-        <v>2446648.304522873</v>
+        <v>2447003.954792281</v>
       </c>
       <c r="E75">
-        <v>551.3737888625928</v>
+        <v>551.4539546544087</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2404,10 +2404,10 @@
         <v>200</v>
       </c>
       <c r="D76">
-        <v>244627.3848209206</v>
+        <v>244685.6663867866</v>
       </c>
       <c r="E76">
-        <v>343.3679060665362</v>
+        <v>343.4497553816047</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2421,10 +2421,10 @@
         <v>201</v>
       </c>
       <c r="D77">
-        <v>581.8485323193751</v>
+        <v>581.7548477886918</v>
       </c>
       <c r="E77">
-        <v>453.8571428571428</v>
+        <v>453.7840750558036</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2438,10 +2438,10 @@
         <v>202</v>
       </c>
       <c r="D78">
-        <v>8431921.876307072</v>
+        <v>8432767.384510184</v>
       </c>
       <c r="E78">
-        <v>442.5936811722704</v>
+        <v>442.6380575193484</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2455,10 +2455,10 @@
         <v>203</v>
       </c>
       <c r="D79">
-        <v>62436287.65378428</v>
+        <v>62432170.91314495</v>
       </c>
       <c r="E79">
-        <v>412.0872864859177</v>
+        <v>412.0601071901838</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2472,10 +2472,10 @@
         <v>204</v>
       </c>
       <c r="D80">
-        <v>59918798.08625815</v>
+        <v>59934593.50142176</v>
       </c>
       <c r="E80">
-        <v>273.6167568622777</v>
+        <v>273.6888519663732</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2489,10 +2489,10 @@
         <v>205</v>
       </c>
       <c r="D81">
-        <v>1760764.092566694</v>
+        <v>1760927.904937504</v>
       </c>
       <c r="E81">
-        <v>515.0885430569643</v>
+        <v>515.136511665154</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2506,10 +2506,10 @@
         <v>206</v>
       </c>
       <c r="D82">
-        <v>16034090.01546084</v>
+        <v>16032960.95069552</v>
       </c>
       <c r="E82">
-        <v>263.1441659472</v>
+        <v>263.1256909535348</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2523,10 +2523,10 @@
         <v>207</v>
       </c>
       <c r="D83">
-        <v>84188487.04930492</v>
+        <v>84230453.6872898</v>
       </c>
       <c r="E83">
-        <v>315.1014983825881</v>
+        <v>315.2585521260547</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2540,10 +2540,10 @@
         <v>208</v>
       </c>
       <c r="D84">
-        <v>11705074.4121924</v>
+        <v>11706624.02777955</v>
       </c>
       <c r="E84">
-        <v>457.9029624264037</v>
+        <v>457.9635924382673</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2557,10 +2557,10 @@
         <v>209</v>
       </c>
       <c r="D85">
-        <v>77274.19531023817</v>
+        <v>77265.90270610315</v>
       </c>
       <c r="E85">
-        <v>402.3999032882012</v>
+        <v>402.3567711481504</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2574,10 +2574,10 @@
         <v>210</v>
       </c>
       <c r="D86">
-        <v>8104764.549024634</v>
+        <v>8104419.778945509</v>
       </c>
       <c r="E86">
-        <v>325.469993673532</v>
+        <v>325.4561383387657</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2591,10 +2591,10 @@
         <v>211</v>
       </c>
       <c r="D87">
-        <v>20077601.83803038</v>
+        <v>20076260.25936029</v>
       </c>
       <c r="E87">
-        <v>316.0154512994458</v>
+        <v>315.9943261270016</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2608,10 +2608,10 @@
         <v>212</v>
       </c>
       <c r="D88">
-        <v>23832.68997263108</v>
+        <v>23825.01835051764</v>
       </c>
       <c r="E88">
-        <v>460.3107142857143</v>
+        <v>460.1625</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2625,10 +2625,10 @@
         <v>213</v>
       </c>
       <c r="D89">
-        <v>3787829.527545282</v>
+        <v>3788026.492319564</v>
       </c>
       <c r="E89">
-        <v>369.4045521657625</v>
+        <v>369.4237498755786</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2642,10 +2642,10 @@
         <v>214</v>
       </c>
       <c r="D90">
-        <v>241097.6427741701</v>
+        <v>241098.7927524716</v>
       </c>
       <c r="E90">
-        <v>344.2910141206675</v>
+        <v>344.2926438141848</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2659,10 +2659,10 @@
         <v>215</v>
       </c>
       <c r="D91">
-        <v>51475528.73613232</v>
+        <v>51467558.67559888</v>
       </c>
       <c r="E91">
-        <v>279.7305046669416</v>
+        <v>279.6874280755268</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2676,10 +2676,10 @@
         <v>216</v>
       </c>
       <c r="D92">
-        <v>729744.0163340026</v>
+        <v>729601.6736526997</v>
       </c>
       <c r="E92">
-        <v>464.4919317390295</v>
+        <v>464.4013597051312</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2693,10 +2693,10 @@
         <v>217</v>
       </c>
       <c r="D93">
-        <v>23273865.13285113</v>
+        <v>23276560.86356398</v>
       </c>
       <c r="E93">
-        <v>388.7068518205432</v>
+        <v>388.7518082593986</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2710,10 +2710,10 @@
         <v>218</v>
       </c>
       <c r="D94">
-        <v>45726869.98969331</v>
+        <v>45725441.4666009</v>
       </c>
       <c r="E94">
-        <v>303.1877724408957</v>
+        <v>303.1783385803287</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2727,10 +2727,10 @@
         <v>219</v>
       </c>
       <c r="D95">
-        <v>12017205.6899218</v>
+        <v>12018151.36342838</v>
       </c>
       <c r="E95">
-        <v>323.1365200955034</v>
+        <v>323.1619379228014</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2744,10 +2744,10 @@
         <v>220</v>
       </c>
       <c r="D96">
-        <v>5424219.474794986</v>
+        <v>5422471.726412067</v>
       </c>
       <c r="E96">
-        <v>298.0849861300142</v>
+        <v>297.9890149274423</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2761,10 +2761,10 @@
         <v>221</v>
       </c>
       <c r="D97">
-        <v>6675391.121004685</v>
+        <v>6675956.088072158</v>
       </c>
       <c r="E97">
-        <v>368.6612035466181</v>
+        <v>368.6923912584405</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2778,10 +2778,10 @@
         <v>222</v>
       </c>
       <c r="D98">
-        <v>20408995.27361345</v>
+        <v>20402038.69184767</v>
       </c>
       <c r="E98">
-        <v>328.8565878604232</v>
+        <v>328.7444573651123</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2795,10 +2795,10 @@
         <v>223</v>
       </c>
       <c r="D99">
-        <v>70442.56146569632</v>
+        <v>70431.07020269819</v>
       </c>
       <c r="E99">
-        <v>476.0615384615385</v>
+        <v>475.9838842147436</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2812,10 +2812,10 @@
         <v>224</v>
       </c>
       <c r="D100">
-        <v>12715.93762702741</v>
+        <v>12716.74268394951</v>
       </c>
       <c r="E100">
-        <v>372.5186170212766</v>
+        <v>372.5421791888298</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2829,10 +2829,10 @@
         <v>225</v>
       </c>
       <c r="D101">
-        <v>562.7692200444731</v>
+        <v>562.9319217885122</v>
       </c>
       <c r="E101">
-        <v>444.6428571428572</v>
+        <v>444.7714494977678</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2846,10 +2846,10 @@
         <v>226</v>
       </c>
       <c r="D102">
-        <v>85059732.18977225</v>
+        <v>85079360.40253448</v>
       </c>
       <c r="E102">
-        <v>308.2663095092099</v>
+        <v>308.3378633674806</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2863,10 +2863,10 @@
         <v>227</v>
       </c>
       <c r="D103">
-        <v>43812.8665069489</v>
+        <v>43822.05915981749</v>
       </c>
       <c r="E103">
-        <v>459.1891089108911</v>
+        <v>459.285480159344</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2880,10 +2880,10 @@
         <v>228</v>
       </c>
       <c r="D104">
-        <v>324191255.8204107</v>
+        <v>324212005.7240562</v>
       </c>
       <c r="E104">
-        <v>326.3817065730588</v>
+        <v>326.4024848904403</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2897,10 +2897,10 @@
         <v>229</v>
       </c>
       <c r="D105">
-        <v>15735.92339951507</v>
+        <v>15733.18172342407</v>
       </c>
       <c r="E105">
-        <v>483.9709302325581</v>
+        <v>483.8866392623547</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2914,10 +2914,10 @@
         <v>230</v>
       </c>
       <c r="D106">
-        <v>12015938.36549626</v>
+        <v>12013070.4652118</v>
       </c>
       <c r="E106">
-        <v>358.9275938002655</v>
+        <v>358.8420097555895</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2931,10 +2931,10 @@
         <v>231</v>
       </c>
       <c r="D107">
-        <v>2037301.964255879</v>
+        <v>2037540.899494328</v>
       </c>
       <c r="E107">
-        <v>375.5137085641393</v>
+        <v>375.5577453605815</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="D108">
-        <v>135799085.5475682</v>
+        <v>135772160.7813441</v>
       </c>
       <c r="E108">
-        <v>481.2471927412594</v>
+        <v>481.151784201852</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2965,10 +2965,10 @@
         <v>233</v>
       </c>
       <c r="D109">
-        <v>3741710.781229682</v>
+        <v>3741474.044519189</v>
       </c>
       <c r="E109">
-        <v>657.4326337394068</v>
+        <v>657.3910644660562</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2982,10 +2982,10 @@
         <v>234</v>
       </c>
       <c r="D110">
-        <v>240763298.3928025</v>
+        <v>240771275.196523</v>
       </c>
       <c r="E110">
-        <v>534.1274765044824</v>
+        <v>534.1451518192007</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2999,10 +2999,10 @@
         <v>235</v>
       </c>
       <c r="D111">
-        <v>2628.819314516404</v>
+        <v>2628.869567508464</v>
       </c>
       <c r="E111">
-        <v>447.2461538461538</v>
+        <v>447.2546875</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3016,10 +3016,10 @@
         <v>236</v>
       </c>
       <c r="D112">
-        <v>157064.641199698</v>
+        <v>157074.5539907161</v>
       </c>
       <c r="E112">
-        <v>409.0234604105572</v>
+        <v>409.0491223824689</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3033,10 +3033,10 @@
         <v>237</v>
       </c>
       <c r="D113">
-        <v>8867286.610588972</v>
+        <v>8867629.340813924</v>
       </c>
       <c r="E113">
-        <v>583.0080054376558</v>
+        <v>583.0305868136847</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3050,10 +3050,10 @@
         <v>238</v>
       </c>
       <c r="D114">
-        <v>12655.00893925716</v>
+        <v>12651.79149722918</v>
       </c>
       <c r="E114">
-        <v>459.1073825503356</v>
+        <v>458.9906145134228</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3067,10 +3067,10 @@
         <v>239</v>
       </c>
       <c r="D115">
-        <v>111813.2060919877</v>
+        <v>111801.2806209019</v>
       </c>
       <c r="E115">
-        <v>483.2005582137161</v>
+        <v>483.1490231259968</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3084,10 +3084,10 @@
         <v>240</v>
       </c>
       <c r="D116">
-        <v>19456.16536123984</v>
+        <v>19449.92871631523</v>
       </c>
       <c r="E116">
-        <v>411.2714570858283</v>
+        <v>411.1396581836327</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3101,10 +3101,10 @@
         <v>241</v>
       </c>
       <c r="D117">
-        <v>84403982.27418976</v>
+        <v>84388022.31717898</v>
       </c>
       <c r="E117">
-        <v>336.8149478523693</v>
+        <v>336.7511686838612</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3118,10 +3118,10 @@
         <v>242</v>
       </c>
       <c r="D118">
-        <v>416048.8098825993</v>
+        <v>415989.806802018</v>
       </c>
       <c r="E118">
-        <v>396.9109717868338</v>
+        <v>396.8547042935513</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3135,10 +3135,10 @@
         <v>243</v>
       </c>
       <c r="D119">
-        <v>475598.399119324</v>
+        <v>475414.1491377202</v>
       </c>
       <c r="E119">
-        <v>456.1882161792372</v>
+        <v>456.0112771506755</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3152,10 +3152,10 @@
         <v>244</v>
       </c>
       <c r="D120">
-        <v>3225513.533976575</v>
+        <v>3225105.912836595</v>
       </c>
       <c r="E120">
-        <v>393.8696316918443</v>
+        <v>393.8198571779015</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3169,10 +3169,10 @@
         <v>245</v>
       </c>
       <c r="D121">
-        <v>44361.55174011002</v>
+        <v>44362.84381442615</v>
       </c>
       <c r="E121">
-        <v>453.7078341013825</v>
+        <v>453.7210253456221</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3186,10 +3186,10 @@
         <v>246</v>
       </c>
       <c r="D122">
-        <v>110791.2575325587</v>
+        <v>110803.7195556238</v>
       </c>
       <c r="E122">
-        <v>425.8107167710508</v>
+        <v>425.8586301757133</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3203,10 +3203,10 @@
         <v>247</v>
       </c>
       <c r="D123">
-        <v>862862.0001439437</v>
+        <v>863032.9991554868</v>
       </c>
       <c r="E123">
-        <v>326.2682812206278</v>
+        <v>326.332292417288</v>
       </c>
     </row>
   </sheetData>

--- a/07_calc_country_stats/03_total_c_stats/02_combine_tile_stats/country_total_c_stats.xlsx
+++ b/07_calc_country_stats/03_total_c_stats/02_combine_tile_stats/country_total_c_stats.xlsx
@@ -1146,10 +1146,10 @@
         <v>126</v>
       </c>
       <c r="D2">
-        <v>12390394.66288805</v>
+        <v>8527472.957115527</v>
       </c>
       <c r="E2">
-        <v>440.9518961439761</v>
+        <v>303.6033662635649</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>127</v>
       </c>
       <c r="D3">
-        <v>1268.626646492208</v>
+        <v>719.0170428105491</v>
       </c>
       <c r="E3">
-        <v>390.0389268663195</v>
+        <v>221.0667182074653</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>128</v>
       </c>
       <c r="D4">
-        <v>2758784.283150818</v>
+        <v>792494.0520104304</v>
       </c>
       <c r="E4">
-        <v>373.9830272023904</v>
+        <v>107.5905703532259</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>129</v>
       </c>
       <c r="D5">
-        <v>19893.17298793809</v>
+        <v>7244.759204495484</v>
       </c>
       <c r="E5">
-        <v>335.3825752192341</v>
+        <v>122.1448343590288</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>130</v>
       </c>
       <c r="D6">
-        <v>87599598.84107204</v>
+        <v>42482127.40210343</v>
       </c>
       <c r="E6">
-        <v>584.7844134007158</v>
+        <v>283.893096679115</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>131</v>
       </c>
       <c r="D7">
-        <v>2772506.121227667</v>
+        <v>1350253.344461508</v>
       </c>
       <c r="E7">
-        <v>377.591310550005</v>
+        <v>183.6516266847268</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>132</v>
       </c>
       <c r="D8">
-        <v>23867992.5663089</v>
+        <v>17272327.54262739</v>
       </c>
       <c r="E8">
-        <v>488.7768809443369</v>
+        <v>353.7477716483015</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>133</v>
       </c>
       <c r="D9">
-        <v>19275125.92849181</v>
+        <v>13929726.36468684</v>
       </c>
       <c r="E9">
-        <v>368.8131386256413</v>
+        <v>266.4927264662687</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>134</v>
       </c>
       <c r="D10">
-        <v>6613519.305541925</v>
+        <v>4862511.844511469</v>
       </c>
       <c r="E10">
-        <v>575.4667350913747</v>
+        <v>423.1051726196849</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1299,10 +1299,10 @@
         <v>135</v>
       </c>
       <c r="D11">
-        <v>11577146.7399784</v>
+        <v>5950863.797879409</v>
       </c>
       <c r="E11">
-        <v>389.6665946278514</v>
+        <v>200.3882580827875</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1316,10 +1316,10 @@
         <v>136</v>
       </c>
       <c r="D12">
-        <v>44708.27675587395</v>
+        <v>18999.83332901652</v>
       </c>
       <c r="E12">
-        <v>326.7194781990711</v>
+        <v>139.1237112628123</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1333,10 +1333,10 @@
         <v>137</v>
       </c>
       <c r="D13">
-        <v>19883590.02750538</v>
+        <v>17478346.93650788</v>
       </c>
       <c r="E13">
-        <v>255.6703231813087</v>
+        <v>224.7237278275805</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1350,10 +1350,10 @@
         <v>138</v>
       </c>
       <c r="D14">
-        <v>5571697.363196802</v>
+        <v>5706517.832046477</v>
       </c>
       <c r="E14">
-        <v>269.3459668605756</v>
+        <v>275.9452015495471</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1367,10 +1367,10 @@
         <v>139</v>
       </c>
       <c r="D15">
-        <v>1770398.171839612</v>
+        <v>1900220.850660732</v>
       </c>
       <c r="E15">
-        <v>330.084158717468</v>
+        <v>354.298918173798</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1384,10 +1384,10 @@
         <v>140</v>
       </c>
       <c r="D16">
-        <v>93669862.84371033</v>
+        <v>71510578.3705374</v>
       </c>
       <c r="E16">
-        <v>475.1353545957035</v>
+        <v>362.7236570091595</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1401,10 +1401,10 @@
         <v>141</v>
       </c>
       <c r="D17">
-        <v>10687135.79427489</v>
+        <v>6569152.711674354</v>
       </c>
       <c r="E17">
-        <v>450.78577377513</v>
+        <v>277.0865727549862</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1418,10 +1418,10 @@
         <v>142</v>
       </c>
       <c r="D18">
-        <v>1040120.065886212</v>
+        <v>659400.0668553044</v>
       </c>
       <c r="E18">
-        <v>517.9193331004764</v>
+        <v>328.3431678574797</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1435,10 +1435,10 @@
         <v>143</v>
       </c>
       <c r="D19">
-        <v>38774492.56950162</v>
+        <v>31586480.2214316</v>
       </c>
       <c r="E19">
-        <v>305.4475591936977</v>
+        <v>248.8561007404222</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1452,10 +1452,10 @@
         <v>144</v>
       </c>
       <c r="D20">
-        <v>389398.294157113</v>
+        <v>228511.7558897253</v>
       </c>
       <c r="E20">
-        <v>557.3589035743408</v>
+        <v>327.077305313944</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1469,10 +1469,10 @@
         <v>145</v>
       </c>
       <c r="D21">
-        <v>29968507.59680502</v>
+        <v>20851664.93297028</v>
       </c>
       <c r="E21">
-        <v>569.9103157054461</v>
+        <v>396.5188313677285</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1486,10 +1486,10 @@
         <v>146</v>
       </c>
       <c r="D22">
-        <v>6625593.260812703</v>
+        <v>4058089.724602831</v>
       </c>
       <c r="E22">
-        <v>440.8186434735465</v>
+        <v>269.9842876748184</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1503,10 +1503,10 @@
         <v>147</v>
       </c>
       <c r="D23">
-        <v>1668976363.110456</v>
+        <v>1212353603.432472</v>
       </c>
       <c r="E23">
-        <v>575.1191242877294</v>
+        <v>417.7699307565299</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1520,10 +1520,10 @@
         <v>148</v>
       </c>
       <c r="D24">
-        <v>90021375.85784994</v>
+        <v>88005325.70834096</v>
       </c>
       <c r="E24">
-        <v>222.6745341424459</v>
+        <v>218.2769155428784</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1537,10 +1537,10 @@
         <v>149</v>
       </c>
       <c r="D25">
-        <v>4113670.368364469</v>
+        <v>3076178.904556471</v>
       </c>
       <c r="E25">
-        <v>421.1187402190923</v>
+        <v>314.9045603337315</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1554,10 +1554,10 @@
         <v>150</v>
       </c>
       <c r="D26">
-        <v>426042.4986814807</v>
+        <v>335772.6350550798</v>
       </c>
       <c r="E26">
-        <v>413.8267686175803</v>
+        <v>326.2661278139188</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1571,10 +1571,10 @@
         <v>151</v>
       </c>
       <c r="D27">
-        <v>20650239.15436623</v>
+        <v>17373597.06131275</v>
       </c>
       <c r="E27">
-        <v>380.7340663126819</v>
+        <v>320.3770427580031</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1588,10 +1588,10 @@
         <v>152</v>
       </c>
       <c r="D28">
-        <v>3531627.046710108</v>
+        <v>2461203.500148857</v>
       </c>
       <c r="E28">
-        <v>430.0717069478512</v>
+        <v>299.7427126414814</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1605,10 +1605,10 @@
         <v>153</v>
       </c>
       <c r="D29">
-        <v>74538.89460371778</v>
+        <v>35048.05949996054</v>
       </c>
       <c r="E29">
-        <v>461.2028929897202</v>
+        <v>216.8722292618504</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1622,10 +1622,10 @@
         <v>154</v>
       </c>
       <c r="D30">
-        <v>1093713.965152833</v>
+        <v>1096591.200917298</v>
       </c>
       <c r="E30">
-        <v>315.6053219273362</v>
+        <v>315.6817396210867</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1639,10 +1639,10 @@
         <v>155</v>
       </c>
       <c r="D31">
-        <v>168016518.2398848</v>
+        <v>160789102.3999033</v>
       </c>
       <c r="E31">
-        <v>315.1929006230121</v>
+        <v>300.8526932183195</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1656,10 +1656,10 @@
         <v>156</v>
       </c>
       <c r="D32">
-        <v>935517.3593692683</v>
+        <v>557316.5101829998</v>
       </c>
       <c r="E32">
-        <v>481.189768586437</v>
+        <v>286.6593511901945</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1673,10 +1673,10 @@
         <v>157</v>
       </c>
       <c r="D33">
-        <v>157881.6063342656</v>
+        <v>81139.44113378099</v>
       </c>
       <c r="E33">
-        <v>403.0601238981687</v>
+        <v>207.1426030452552</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1690,10 +1690,10 @@
         <v>158</v>
       </c>
       <c r="D34">
-        <v>283475553.7924027</v>
+        <v>219580411.4218048</v>
       </c>
       <c r="E34">
-        <v>542.7342736446184</v>
+        <v>420.4325619632589</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1707,10 +1707,10 @@
         <v>159</v>
       </c>
       <c r="D35">
-        <v>299052.4828884348</v>
+        <v>208681.9884764209</v>
       </c>
       <c r="E35">
-        <v>442.7478392097681</v>
+        <v>308.9477294553437</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1724,10 +1724,10 @@
         <v>160</v>
       </c>
       <c r="D36">
-        <v>374863163.9333791</v>
+        <v>285816793.9237059</v>
       </c>
       <c r="E36">
-        <v>446.6965510828551</v>
+        <v>340.6026453238789</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1741,10 +1741,10 @@
         <v>161</v>
       </c>
       <c r="D37">
-        <v>28712053.92844685</v>
+        <v>19714478.73151911</v>
       </c>
       <c r="E37">
-        <v>387.0948194615282</v>
+        <v>265.8243927891787</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1758,10 +1758,10 @@
         <v>162</v>
       </c>
       <c r="D38">
-        <v>27340.12781301307</v>
+        <v>21404.42967593246</v>
       </c>
       <c r="E38">
-        <v>571.1502976190476</v>
+        <v>447.1502976190476</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1775,10 +1775,10 @@
         <v>163</v>
       </c>
       <c r="D39">
-        <v>26870105.61007523</v>
+        <v>30484523.39034868</v>
       </c>
       <c r="E39">
-        <v>332.6133911143092</v>
+        <v>377.3538610616328</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1792,10 +1792,10 @@
         <v>164</v>
       </c>
       <c r="D40">
-        <v>58041.95458375636</v>
+        <v>42959.18709715844</v>
       </c>
       <c r="E40">
-        <v>465.6352378795131</v>
+        <v>344.5819692799508</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1809,10 +1809,10 @@
         <v>165</v>
       </c>
       <c r="D41">
-        <v>175414.2574202419</v>
+        <v>43489.07973775975</v>
       </c>
       <c r="E41">
-        <v>383.1842274728363</v>
+        <v>94.99967728432934</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1826,10 +1826,10 @@
         <v>166</v>
       </c>
       <c r="D42">
-        <v>2389734.907156862</v>
+        <v>944536.078215195</v>
       </c>
       <c r="E42">
-        <v>339.6478020577375</v>
+        <v>134.3547001846578</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1843,10 +1843,10 @@
         <v>167</v>
       </c>
       <c r="D43">
-        <v>4587.083025099226</v>
+        <v>4264.84854327211</v>
       </c>
       <c r="E43">
-        <v>529.921238111413</v>
+        <v>492.6821076766304</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1860,10 +1860,10 @@
         <v>168</v>
       </c>
       <c r="D44">
-        <v>54582.66150605227</v>
+        <v>43162.35531480815</v>
       </c>
       <c r="E44">
-        <v>349.417398683665</v>
+        <v>276.3941814365672</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1877,10 +1877,10 @@
         <v>169</v>
       </c>
       <c r="D45">
-        <v>40722876.14218954</v>
+        <v>35908475.71224254</v>
       </c>
       <c r="E45">
-        <v>370.6573754008277</v>
+        <v>326.7088586345822</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1894,10 +1894,10 @@
         <v>170</v>
       </c>
       <c r="D46">
-        <v>119429947.5458408</v>
+        <v>91582995.11440414</v>
       </c>
       <c r="E46">
-        <v>517.7165638511594</v>
+        <v>396.9708206100395</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1911,10 +1911,10 @@
         <v>171</v>
       </c>
       <c r="D47">
-        <v>12198.55481230437</v>
+        <v>8196.875515974803</v>
       </c>
       <c r="E47">
-        <v>383.8581222667639</v>
+        <v>257.8901466836735</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1928,10 +1928,10 @@
         <v>172</v>
       </c>
       <c r="D48">
-        <v>116674284.0193381</v>
+        <v>95583415.37589337</v>
       </c>
       <c r="E48">
-        <v>410.2870117917989</v>
+        <v>336.1551288080712</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1945,10 +1945,10 @@
         <v>173</v>
       </c>
       <c r="D49">
-        <v>473451.7326661109</v>
+        <v>209778.2120645852</v>
       </c>
       <c r="E49">
-        <v>328.143537888691</v>
+        <v>145.4000320928539</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1962,10 +1962,10 @@
         <v>174</v>
       </c>
       <c r="D50">
-        <v>18653.06792671596</v>
+        <v>9177.667686248049</v>
       </c>
       <c r="E50">
-        <v>424.0859210179325</v>
+        <v>208.6576509757384</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1979,10 +1979,10 @@
         <v>175</v>
       </c>
       <c r="D51">
-        <v>14223015.48806399</v>
+        <v>13109940.58867815</v>
       </c>
       <c r="E51">
-        <v>386.006361297112</v>
+        <v>355.8261503417653</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1996,10 +1996,10 @@
         <v>176</v>
       </c>
       <c r="D52">
-        <v>169069199.0080719</v>
+        <v>106834326.8372063</v>
       </c>
       <c r="E52">
-        <v>481.6695340906206</v>
+        <v>304.456111830029</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2013,10 +2013,10 @@
         <v>177</v>
       </c>
       <c r="D53">
-        <v>15190.31404731837</v>
+        <v>10039.37642546108</v>
       </c>
       <c r="E53">
-        <v>338.5279422230849</v>
+        <v>223.7370600414079</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2030,10 +2030,10 @@
         <v>178</v>
       </c>
       <c r="D54">
-        <v>15580.86485710313</v>
+        <v>8788.86940709173</v>
       </c>
       <c r="E54">
-        <v>483.3011160714286</v>
+        <v>272.6211160714286</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2047,10 +2047,10 @@
         <v>179</v>
       </c>
       <c r="D55">
-        <v>231662.9713830547</v>
+        <v>189331.5309757458</v>
       </c>
       <c r="E55">
-        <v>343.4436725375082</v>
+        <v>280.6875081539465</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2064,10 +2064,10 @@
         <v>180</v>
       </c>
       <c r="D56">
-        <v>69954535.41631524</v>
+        <v>57549658.29743045</v>
       </c>
       <c r="E56">
-        <v>457.7257176228437</v>
+        <v>376.5205303592294</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2081,10 +2081,10 @@
         <v>181</v>
       </c>
       <c r="D57">
-        <v>389889.742642682</v>
+        <v>195281.0431464144</v>
       </c>
       <c r="E57">
-        <v>449.2297847889678</v>
+        <v>225.0001044713748</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2098,10 +2098,10 @@
         <v>182</v>
       </c>
       <c r="D58">
-        <v>361207570.5191835</v>
+        <v>280636815.351312</v>
       </c>
       <c r="E58">
-        <v>359.387845714789</v>
+        <v>279.4123450130386</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2115,10 +2115,10 @@
         <v>183</v>
       </c>
       <c r="D59">
-        <v>1155935.153687773</v>
+        <v>915187.0854215175</v>
       </c>
       <c r="E59">
-        <v>403.9038201431729</v>
+        <v>319.7822881272061</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2132,10 +2132,10 @@
         <v>184</v>
       </c>
       <c r="D60">
-        <v>100310.8731440218</v>
+        <v>41638.86882472906</v>
       </c>
       <c r="E60">
-        <v>545.2352272727272</v>
+        <v>226.3261047979798</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2149,10 +2149,10 @@
         <v>185</v>
       </c>
       <c r="D61">
-        <v>90625749.6197352</v>
+        <v>101113471.5731889</v>
       </c>
       <c r="E61">
-        <v>201.9954720273445</v>
+        <v>225.3702697588909</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2166,10 +2166,10 @@
         <v>186</v>
       </c>
       <c r="D62">
-        <v>59795.65193883802</v>
+        <v>31980.57342883578</v>
       </c>
       <c r="E62">
-        <v>296.3523510545049</v>
+        <v>159.1258234169146</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2183,10 +2183,10 @@
         <v>187</v>
       </c>
       <c r="D63">
-        <v>4475837.301220154</v>
+        <v>2387317.687698097</v>
       </c>
       <c r="E63">
-        <v>514.192231946595</v>
+        <v>274.2106474212515</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2200,10 +2200,10 @@
         <v>188</v>
       </c>
       <c r="D64">
-        <v>92074746.3157794</v>
+        <v>68886269.75428553</v>
       </c>
       <c r="E64">
-        <v>528.3269929841379</v>
+        <v>395.2681750158442</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2217,10 +2217,10 @@
         <v>189</v>
       </c>
       <c r="D65">
-        <v>5091276.682586251</v>
+        <v>5722667.933300249</v>
       </c>
       <c r="E65">
-        <v>286.075791264057</v>
+        <v>321.5566081405278</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2234,10 +2234,10 @@
         <v>190</v>
       </c>
       <c r="D66">
-        <v>77729437.28185432</v>
+        <v>82204777.03066431</v>
       </c>
       <c r="E66">
-        <v>260.4927162464455</v>
+        <v>275.991373914692</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2251,10 +2251,10 @@
         <v>191</v>
       </c>
       <c r="D67">
-        <v>10946.57623210959</v>
+        <v>4787.883745547561</v>
       </c>
       <c r="E67">
-        <v>526.4618459302326</v>
+        <v>230.2679869186047</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2268,10 +2268,10 @@
         <v>192</v>
       </c>
       <c r="D68">
-        <v>408808016.059426</v>
+        <v>393384050.3137348</v>
       </c>
       <c r="E68">
-        <v>359.6184163110727</v>
+        <v>345.4147643189757</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2285,10 +2285,10 @@
         <v>193</v>
       </c>
       <c r="D69">
-        <v>3893.317661758655</v>
+        <v>2185.199880272869</v>
       </c>
       <c r="E69">
-        <v>359.429921207265</v>
+        <v>201.7376469017094</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2302,10 +2302,10 @@
         <v>194</v>
       </c>
       <c r="D70">
-        <v>11583493.00149527</v>
+        <v>9876195.657936357</v>
       </c>
       <c r="E70">
-        <v>410.0848647490606</v>
+        <v>349.5554868842274</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2319,10 +2319,10 @@
         <v>195</v>
       </c>
       <c r="D71">
-        <v>103315.3763670533</v>
+        <v>64726.74340128426</v>
       </c>
       <c r="E71">
-        <v>296.6081695316597</v>
+        <v>185.8192015129293</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2336,10 +2336,10 @@
         <v>196</v>
       </c>
       <c r="D72">
-        <v>1557.965555167946</v>
+        <v>1353.168765799534</v>
       </c>
       <c r="E72">
-        <v>445.4205478766025</v>
+        <v>386.6513108473558</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2353,10 +2353,10 @@
         <v>197</v>
       </c>
       <c r="D73">
-        <v>140051491.3198669</v>
+        <v>97274561.75356205</v>
       </c>
       <c r="E73">
-        <v>502.6243348299298</v>
+        <v>349.2225312689707</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2370,10 +2370,10 @@
         <v>198</v>
       </c>
       <c r="D74">
-        <v>51512.96446944027</v>
+        <v>38349.33773461804</v>
       </c>
       <c r="E74">
-        <v>540.1458206548199</v>
+        <v>402.1156394535054</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2387,10 +2387,10 @@
         <v>199</v>
       </c>
       <c r="D75">
-        <v>2447003.954792281</v>
+        <v>1332586.086020988</v>
       </c>
       <c r="E75">
-        <v>551.4539546544087</v>
+        <v>300.3119962022372</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2404,10 +2404,10 @@
         <v>200</v>
       </c>
       <c r="D76">
-        <v>244685.6663867866</v>
+        <v>113279.108676392</v>
       </c>
       <c r="E76">
-        <v>343.4497553816047</v>
+        <v>159.0241886823222</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2421,10 +2421,10 @@
         <v>201</v>
       </c>
       <c r="D77">
-        <v>581.7548477886918</v>
+        <v>308.961917098937</v>
       </c>
       <c r="E77">
-        <v>453.7840750558036</v>
+        <v>240.9983433314732</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2438,10 +2438,10 @@
         <v>202</v>
       </c>
       <c r="D78">
-        <v>8432767.384510184</v>
+        <v>6502320.168020326</v>
       </c>
       <c r="E78">
-        <v>442.6380575193484</v>
+        <v>341.2570080482755</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2455,10 +2455,10 @@
         <v>203</v>
       </c>
       <c r="D79">
-        <v>62432170.91314495</v>
+        <v>43732696.60448809</v>
       </c>
       <c r="E79">
-        <v>412.0601071901838</v>
+        <v>288.6337494774348</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2472,10 +2472,10 @@
         <v>204</v>
       </c>
       <c r="D80">
-        <v>59934593.50142176</v>
+        <v>55775143.74753476</v>
       </c>
       <c r="E80">
-        <v>273.6888519663732</v>
+        <v>254.6888946827412</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2489,10 +2489,10 @@
         <v>205</v>
       </c>
       <c r="D81">
-        <v>1760927.904937504</v>
+        <v>966843.4365867453</v>
       </c>
       <c r="E81">
-        <v>515.136511665154</v>
+        <v>282.8383699648978</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2506,10 +2506,10 @@
         <v>206</v>
       </c>
       <c r="D82">
-        <v>16032960.95069552</v>
+        <v>12993610.40027488</v>
       </c>
       <c r="E82">
-        <v>263.1256909535348</v>
+        <v>213.2459999423415</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2523,10 +2523,10 @@
         <v>207</v>
       </c>
       <c r="D83">
-        <v>84230453.6872898</v>
+        <v>56135468.82105456</v>
       </c>
       <c r="E83">
-        <v>315.2585521260547</v>
+        <v>210.1221914576661</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2540,10 +2540,10 @@
         <v>208</v>
       </c>
       <c r="D84">
-        <v>11706624.02777955</v>
+        <v>10146781.38521155</v>
       </c>
       <c r="E84">
-        <v>457.9635924382673</v>
+        <v>396.9458734833816</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2557,10 +2557,10 @@
         <v>209</v>
       </c>
       <c r="D85">
-        <v>77265.90270610315</v>
+        <v>51146.00257956545</v>
       </c>
       <c r="E85">
-        <v>402.3567711481504</v>
+        <v>266.3374287883825</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2574,10 +2574,10 @@
         <v>210</v>
       </c>
       <c r="D86">
-        <v>8104419.778945509</v>
+        <v>9002318.576645754</v>
       </c>
       <c r="E86">
-        <v>325.4561383387657</v>
+        <v>361.5015455450197</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2591,10 +2591,10 @@
         <v>211</v>
       </c>
       <c r="D87">
-        <v>20076260.25936029</v>
+        <v>22129730.34721343</v>
       </c>
       <c r="E87">
-        <v>315.9943261270016</v>
+        <v>348.3368798127105</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2608,10 +2608,10 @@
         <v>212</v>
       </c>
       <c r="D88">
-        <v>23825.01835051764</v>
+        <v>23019.23074575666</v>
       </c>
       <c r="E88">
-        <v>460.1625</v>
+        <v>444.6018415178572</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2625,10 +2625,10 @@
         <v>213</v>
       </c>
       <c r="D89">
-        <v>3788026.492319564</v>
+        <v>1621271.800392105</v>
       </c>
       <c r="E89">
-        <v>369.4237498755786</v>
+        <v>158.0473222043539</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2642,10 +2642,10 @@
         <v>214</v>
       </c>
       <c r="D90">
-        <v>241098.7927524716</v>
+        <v>109775.1023354256</v>
       </c>
       <c r="E90">
-        <v>344.2926438141848</v>
+        <v>156.7633638629252</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2659,10 +2659,10 @@
         <v>215</v>
       </c>
       <c r="D91">
-        <v>51467558.67559888</v>
+        <v>60178784.39919849</v>
       </c>
       <c r="E91">
-        <v>279.6874280755268</v>
+        <v>327.0250486233622</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2676,10 +2676,10 @@
         <v>216</v>
       </c>
       <c r="D92">
-        <v>729601.6736526997</v>
+        <v>480880.7760569241</v>
       </c>
       <c r="E92">
-        <v>464.4013597051312</v>
+        <v>306.0617018806594</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2693,10 +2693,10 @@
         <v>217</v>
       </c>
       <c r="D93">
-        <v>23276560.86356398</v>
+        <v>15702625.30886943</v>
       </c>
       <c r="E93">
-        <v>388.7518082593986</v>
+        <v>262.1768377500461</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2710,10 +2710,10 @@
         <v>218</v>
       </c>
       <c r="D94">
-        <v>45725441.4666009</v>
+        <v>46937935.17398849</v>
       </c>
       <c r="E94">
-        <v>303.1783385803287</v>
+        <v>311.2162282940085</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2727,10 +2727,10 @@
         <v>219</v>
       </c>
       <c r="D95">
-        <v>12018151.36342838</v>
+        <v>10623037.3150213</v>
       </c>
       <c r="E95">
-        <v>323.1619379228014</v>
+        <v>285.6549865698369</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2744,10 +2744,10 @@
         <v>220</v>
       </c>
       <c r="D96">
-        <v>5422471.726412067</v>
+        <v>5579687.31009445</v>
       </c>
       <c r="E96">
-        <v>297.9890149274423</v>
+        <v>306.6347380887601</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2761,10 +2761,10 @@
         <v>221</v>
       </c>
       <c r="D97">
-        <v>6675956.088072158</v>
+        <v>4218701.915330376</v>
       </c>
       <c r="E97">
-        <v>368.6923912584405</v>
+        <v>232.8899726511632</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2778,10 +2778,10 @@
         <v>222</v>
       </c>
       <c r="D98">
-        <v>20402038.69184767</v>
+        <v>21284721.03390126</v>
       </c>
       <c r="E98">
-        <v>328.7444573651123</v>
+        <v>342.9770737454133</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2795,10 +2795,10 @@
         <v>223</v>
       </c>
       <c r="D99">
-        <v>70431.07020269819</v>
+        <v>55569.78084564616</v>
       </c>
       <c r="E99">
-        <v>475.9838842147436</v>
+        <v>375.5473457532051</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2812,10 +2812,10 @@
         <v>224</v>
       </c>
       <c r="D100">
-        <v>12716.74268394951</v>
+        <v>7646.959462495266</v>
       </c>
       <c r="E100">
-        <v>372.5421791888298</v>
+        <v>224.0209025930851</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2829,10 +2829,10 @@
         <v>225</v>
       </c>
       <c r="D101">
-        <v>562.9319217885122</v>
+        <v>297.7717370580694</v>
       </c>
       <c r="E101">
-        <v>444.7714494977678</v>
+        <v>235.2713971819196</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2846,10 +2846,10 @@
         <v>226</v>
       </c>
       <c r="D102">
-        <v>85079360.40253448</v>
+        <v>85776103.34918754</v>
       </c>
       <c r="E102">
-        <v>308.3378633674806</v>
+        <v>310.9384791840486</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2863,10 +2863,10 @@
         <v>227</v>
       </c>
       <c r="D103">
-        <v>43822.05915981749</v>
+        <v>29851.44729880864</v>
       </c>
       <c r="E103">
-        <v>459.285480159344</v>
+        <v>312.9052744043935</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2880,10 +2880,10 @@
         <v>228</v>
       </c>
       <c r="D104">
-        <v>324212005.7240562</v>
+        <v>239339135.3024404</v>
       </c>
       <c r="E104">
-        <v>326.4024848904403</v>
+        <v>241.2269904464399</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2897,10 +2897,10 @@
         <v>229</v>
       </c>
       <c r="D105">
-        <v>15733.18172342407</v>
+        <v>10096.15059411148</v>
       </c>
       <c r="E105">
-        <v>483.8866392623547</v>
+        <v>310.5028871048328</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2914,10 +2914,10 @@
         <v>230</v>
       </c>
       <c r="D106">
-        <v>12013070.4652118</v>
+        <v>10904899.94696368</v>
       </c>
       <c r="E106">
-        <v>358.8420097555895</v>
+        <v>325.7869700864046</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2931,10 +2931,10 @@
         <v>231</v>
       </c>
       <c r="D107">
-        <v>2037540.899494328</v>
+        <v>1332876.7867344</v>
       </c>
       <c r="E107">
-        <v>375.5577453605815</v>
+        <v>245.671048453418</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="D108">
-        <v>135772160.7813441</v>
+        <v>102004702.3062016</v>
       </c>
       <c r="E108">
-        <v>481.151784201852</v>
+        <v>361.5920352338304</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2965,10 +2965,10 @@
         <v>233</v>
       </c>
       <c r="D109">
-        <v>3741474.044519189</v>
+        <v>1890353.607707238</v>
       </c>
       <c r="E109">
-        <v>657.3910644660562</v>
+        <v>332.1469724946103</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2982,10 +2982,10 @@
         <v>234</v>
       </c>
       <c r="D110">
-        <v>240771275.196523</v>
+        <v>178636096.5267898</v>
       </c>
       <c r="E110">
-        <v>534.1451518192007</v>
+        <v>396.2708147575885</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2999,10 +2999,10 @@
         <v>235</v>
       </c>
       <c r="D111">
-        <v>2628.869567508464</v>
+        <v>1590.944599420074</v>
       </c>
       <c r="E111">
-        <v>447.2546875</v>
+        <v>270.6700721153846</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3016,10 +3016,10 @@
         <v>236</v>
       </c>
       <c r="D112">
-        <v>157074.5539907161</v>
+        <v>124989.6795817589</v>
       </c>
       <c r="E112">
-        <v>409.0491223824689</v>
+        <v>325.2653980422929</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3033,10 +3033,10 @@
         <v>237</v>
       </c>
       <c r="D113">
-        <v>8867629.340813924</v>
+        <v>4588226.168115537</v>
       </c>
       <c r="E113">
-        <v>583.0305868136847</v>
+        <v>301.6661418786636</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3050,10 +3050,10 @@
         <v>238</v>
       </c>
       <c r="D114">
-        <v>12651.79149722918</v>
+        <v>9417.837151844302</v>
       </c>
       <c r="E114">
-        <v>458.9906145134228</v>
+        <v>341.668519295302</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3067,10 +3067,10 @@
         <v>239</v>
       </c>
       <c r="D115">
-        <v>111801.2806209019</v>
+        <v>66366.47046965762</v>
       </c>
       <c r="E115">
-        <v>483.1490231259968</v>
+        <v>286.8045255183413</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3084,10 +3084,10 @@
         <v>240</v>
       </c>
       <c r="D116">
-        <v>19449.92871631523</v>
+        <v>13763.87248735999</v>
       </c>
       <c r="E116">
-        <v>411.1396581836327</v>
+        <v>290.9460142215569</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3101,10 +3101,10 @@
         <v>241</v>
       </c>
       <c r="D117">
-        <v>84388022.31717898</v>
+        <v>96344484.83173041</v>
       </c>
       <c r="E117">
-        <v>336.7511686838612</v>
+        <v>384.3628902722806</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3118,10 +3118,10 @@
         <v>242</v>
       </c>
       <c r="D118">
-        <v>415989.806802018</v>
+        <v>338768.9562016489</v>
       </c>
       <c r="E118">
-        <v>396.8547042935513</v>
+        <v>323.2036519086046</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3135,10 +3135,10 @@
         <v>243</v>
       </c>
       <c r="D119">
-        <v>475414.1491377202</v>
+        <v>306658.4990915924</v>
       </c>
       <c r="E119">
-        <v>456.0112771506755</v>
+        <v>294.0689856977937</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3152,10 +3152,10 @@
         <v>244</v>
       </c>
       <c r="D120">
-        <v>3225105.912836595</v>
+        <v>2768949.396433926</v>
       </c>
       <c r="E120">
-        <v>393.8198571779015</v>
+        <v>338.1117995812605</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3169,10 +3169,10 @@
         <v>245</v>
       </c>
       <c r="D121">
-        <v>44362.84381442615</v>
+        <v>23199.26838521728</v>
       </c>
       <c r="E121">
-        <v>453.7210253456221</v>
+        <v>237.2306883640553</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3186,10 +3186,10 @@
         <v>246</v>
       </c>
       <c r="D122">
-        <v>110803.7195556238</v>
+        <v>59488.41373418778</v>
       </c>
       <c r="E122">
-        <v>425.8586301757133</v>
+        <v>228.6766538361169</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3203,10 +3203,10 @@
         <v>247</v>
       </c>
       <c r="D123">
-        <v>863032.9991554868</v>
+        <v>700172.7767382072</v>
       </c>
       <c r="E123">
-        <v>326.332292417288</v>
+        <v>264.8525944412244</v>
       </c>
     </row>
   </sheetData>
